--- a/Data/Final_tables/table1.xlsx
+++ b/Data/Final_tables/table1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/forci/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/forci/Desktop/Diploma/Code/Data/Final_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7B0B04-BA47-ED48-B8AD-E6A46B864D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30C613C-8E7A-DC47-92EC-9395817437E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" firstSheet="15" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1340" yWindow="500" windowWidth="32260" windowHeight="20500" firstSheet="18" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="arima_ch" sheetId="28" r:id="rId1"/>
@@ -39,9 +39,11 @@
     <sheet name="arima_grach_us" sheetId="25" r:id="rId24"/>
     <sheet name="arima_figarch_ch" sheetId="26" r:id="rId25"/>
     <sheet name="arima_figarch_us" sheetId="27" r:id="rId26"/>
-    <sheet name="table" sheetId="1" r:id="rId27"/>
-    <sheet name="mssa_wn_ch" sheetId="30" r:id="rId28"/>
-    <sheet name="mssa_wn_us" sheetId="31" r:id="rId29"/>
+    <sheet name="mssa_wn_ch" sheetId="30" r:id="rId27"/>
+    <sheet name="mssa_wn_us" sheetId="31" r:id="rId28"/>
+    <sheet name="table" sheetId="1" r:id="rId29"/>
+    <sheet name="arfima_figarch_ch" sheetId="33" r:id="rId30"/>
+    <sheet name="arfima_figrach_us" sheetId="34" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="52">
   <si>
     <t>EWMA</t>
   </si>
@@ -564,6 +566,36 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>150</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-8A51-E845-B22D-7C259DA20237}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -692,6 +724,9 @@
                   <c:v>107.32202236466667</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="7">
@@ -902,6 +937,36 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>118</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-8A51-E845-B22D-7C259DA20237}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -1032,6 +1097,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>114.44440134681774</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>118.11804956292661</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.9730318231260733</c:v>
@@ -1519,6 +1587,36 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>150</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-DEDE-4D4E-86B0-DF04B787F634}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="7"/>
               <c:tx>
                 <c:rich>
@@ -1798,6 +1896,9 @@
                 <c:pt idx="5">
                   <c:v>150</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>121.07833732931867</c:v>
                 </c:pt>
@@ -2030,6 +2131,36 @@
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-28F3-7045-AAAC-FB809C6B20E1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>150</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-DEDE-4D4E-86B0-DF04B787F634}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2312,6 +2443,9 @@
                   <c:v>101.0508160647437</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="7">
@@ -8072,11 +8206,389 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66ABD3C-F07E-C34A-A947-83F36C8FEC36}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>3.1594160944223399</v>
+      </c>
+      <c r="C2">
+        <v>433.29100608825598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>7.8174553811550096</v>
+      </c>
+      <c r="C3">
+        <v>94.095933437347398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>2.34640464186668</v>
+      </c>
+      <c r="C4">
+        <v>164.71329927444401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>2.2500278428196898</v>
+      </c>
+      <c r="C5">
+        <v>234.76362228393501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>391.826605796813</v>
+      </c>
+      <c r="C6">
+        <v>1467.98486709594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0.59923809021711305</v>
+      </c>
+      <c r="C7">
+        <v>1248.6461639404199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>1.16126257926225</v>
+      </c>
+      <c r="C8">
+        <v>91.360181570053101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>2.0962633192539202</v>
+      </c>
+      <c r="C9">
+        <v>96.703255176544104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>8.4422990679740906</v>
+      </c>
+      <c r="C10">
+        <v>463.99464607238701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>30.046913027763299</v>
+      </c>
+      <c r="C11">
+        <v>90.780800580978394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>0.51228320226073198</v>
+      </c>
+      <c r="C12">
+        <v>121.22004032135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>10.135595500469201</v>
+      </c>
+      <c r="C13">
+        <v>6435.1013183593705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.68154567852616299</v>
+      </c>
+      <c r="C14">
+        <v>92.060899734496999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>1.0126804932951901</v>
+      </c>
+      <c r="C15">
+        <v>631.63185119628895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>0.65575921908020895</v>
+      </c>
+      <c r="C16">
+        <v>880.61418533325195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C3B1DC-D885-0344-811B-CCF1E1094C3E}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>9.9706813693046499</v>
+      </c>
+      <c r="C2">
+        <v>122.45779037475501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>151.423597335815</v>
+      </c>
+      <c r="C3">
+        <v>15613.565063476501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>0.68194190971553303</v>
+      </c>
+      <c r="C4">
+        <v>94.934916496276799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>1.07456985861063</v>
+      </c>
+      <c r="C5">
+        <v>96.633315086364703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>0.41747991926968098</v>
+      </c>
+      <c r="C6">
+        <v>113.808417320251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>0.94609893858432703</v>
+      </c>
+      <c r="C7">
+        <v>2713.4237289428702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>2.3043479770421902</v>
+      </c>
+      <c r="C8">
+        <v>1274.48387145996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>1.36772198602557</v>
+      </c>
+      <c r="C9">
+        <v>129.455339908599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>0.54964493028819505</v>
+      </c>
+      <c r="C10">
+        <v>101.90608501434301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>0.83574606105685201</v>
+      </c>
+      <c r="C11">
+        <v>99.0877330303192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>5.1826059818267796</v>
+      </c>
+      <c r="C12">
+        <v>1011.11488342285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>0.42008096352219498</v>
+      </c>
+      <c r="C13">
+        <v>4642.2546386718705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>0.499517796561121</v>
+      </c>
+      <c r="C14">
+        <v>114.485013484954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>0.43129171244800002</v>
+      </c>
+      <c r="C15">
+        <v>89.105868339538503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>0.91642914339899995</v>
+      </c>
+      <c r="C16">
+        <v>132.86746740341101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8241,10 +8753,22 @@
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="B9" s="5">
+        <f>MIN(AVERAGE(arfima_figarch_ch!B2:B14), 150)</f>
+        <v>150</v>
+      </c>
+      <c r="C9" s="5">
+        <f>MIN(AVERAGE(arfima_figarch_ch!C2:C14), 150)</f>
+        <v>150</v>
+      </c>
+      <c r="D9" s="5">
+        <f>AVERAGE(arfima_figrach_us!B2:B14)</f>
+        <v>118.11804956292661</v>
+      </c>
+      <c r="E9" s="5">
+        <f>MIN(AVERAGE(arfima_figrach_us!C2:C14), 150)</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -8415,384 +8939,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66ABD3C-F07E-C34A-A947-83F36C8FEC36}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>3.1594160944223399</v>
-      </c>
-      <c r="C2">
-        <v>433.29100608825598</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>7.8174553811550096</v>
-      </c>
-      <c r="C3">
-        <v>94.095933437347398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>2.34640464186668</v>
-      </c>
-      <c r="C4">
-        <v>164.71329927444401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>2.2500278428196898</v>
-      </c>
-      <c r="C5">
-        <v>234.76362228393501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>391.826605796813</v>
-      </c>
-      <c r="C6">
-        <v>1467.98486709594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>0.59923809021711305</v>
-      </c>
-      <c r="C7">
-        <v>1248.6461639404199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <v>1.16126257926225</v>
-      </c>
-      <c r="C8">
-        <v>91.360181570053101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9">
-        <v>2.0962633192539202</v>
-      </c>
-      <c r="C9">
-        <v>96.703255176544104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10">
-        <v>8.4422990679740906</v>
-      </c>
-      <c r="C10">
-        <v>463.99464607238701</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11">
-        <v>30.046913027763299</v>
-      </c>
-      <c r="C11">
-        <v>90.780800580978394</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>0.51228320226073198</v>
-      </c>
-      <c r="C12">
-        <v>121.22004032135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13">
-        <v>10.135595500469201</v>
-      </c>
-      <c r="C13">
-        <v>6435.1013183593705</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>0.68154567852616299</v>
-      </c>
-      <c r="C14">
-        <v>92.060899734496999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15">
-        <v>1.0126804932951901</v>
-      </c>
-      <c r="C15">
-        <v>631.63185119628895</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16">
-        <v>0.65575921908020895</v>
-      </c>
-      <c r="C16">
-        <v>880.61418533325195</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C3B1DC-D885-0344-811B-CCF1E1094C3E}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2">
-        <v>9.9706813693046499</v>
-      </c>
-      <c r="C2">
-        <v>122.45779037475501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>151.423597335815</v>
-      </c>
-      <c r="C3">
-        <v>15613.565063476501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>0.68194190971553303</v>
-      </c>
-      <c r="C4">
-        <v>94.934916496276799</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5">
-        <v>1.07456985861063</v>
-      </c>
-      <c r="C5">
-        <v>96.633315086364703</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6">
-        <v>0.41747991926968098</v>
-      </c>
-      <c r="C6">
-        <v>113.808417320251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7">
-        <v>0.94609893858432703</v>
-      </c>
-      <c r="C7">
-        <v>2713.4237289428702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8">
-        <v>2.3043479770421902</v>
-      </c>
-      <c r="C8">
-        <v>1274.48387145996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9">
-        <v>1.36772198602557</v>
-      </c>
-      <c r="C9">
-        <v>129.455339908599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10">
-        <v>0.54964493028819505</v>
-      </c>
-      <c r="C10">
-        <v>101.90608501434301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11">
-        <v>0.83574606105685201</v>
-      </c>
-      <c r="C11">
-        <v>99.0877330303192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12">
-        <v>5.1826059818267796</v>
-      </c>
-      <c r="C12">
-        <v>1011.11488342285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13">
-        <v>0.42008096352219498</v>
-      </c>
-      <c r="C13">
-        <v>4642.2546386718705</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14">
-        <v>0.499517796561121</v>
-      </c>
-      <c r="C14">
-        <v>114.485013484954</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15">
-        <v>0.43129171244800002</v>
-      </c>
-      <c r="C15">
-        <v>89.105868339538503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16">
-        <v>0.91642914339899995</v>
-      </c>
-      <c r="C16">
-        <v>132.86746740341101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -8987,6 +9133,344 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC92BB1-4E4D-8248-85D3-2655D099F0B9}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>1038.2351676655301</v>
+      </c>
+      <c r="C2">
+        <v>1741.72017461579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>151.137119586376</v>
+      </c>
+      <c r="C3">
+        <v>887.24019995626099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>104.00081575350001</v>
+      </c>
+      <c r="C4">
+        <v>817.75770041870896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>191.00268244859799</v>
+      </c>
+      <c r="C5">
+        <v>972.06070994057995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>126.52828361903801</v>
+      </c>
+      <c r="C6">
+        <v>694.14660945964999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>247.190703049066</v>
+      </c>
+      <c r="C7">
+        <v>870.86011939463697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>343.76948633141097</v>
+      </c>
+      <c r="C8">
+        <v>1259.3873904926299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>170.89086139210701</v>
+      </c>
+      <c r="C9">
+        <v>1520.75561740179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>112.180423855448</v>
+      </c>
+      <c r="C10">
+        <v>707.73373128557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>100.868744905727</v>
+      </c>
+      <c r="C11">
+        <v>1298.0968106999701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>1776.5569948442101</v>
+      </c>
+      <c r="C12">
+        <v>1747.9901313646801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>143.133609870681</v>
+      </c>
+      <c r="C13">
+        <v>953.925944388576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>248.335100160726</v>
+      </c>
+      <c r="C14">
+        <v>1463.87982984058</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB37E98-1D99-DD44-A7D9-992B607409FD}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2">
+        <v>103.244671620877</v>
+      </c>
+      <c r="C2">
+        <v>887.83481125360004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>108.161824289435</v>
+      </c>
+      <c r="C3">
+        <v>790.36883108638096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>138.00431551897299</v>
+      </c>
+      <c r="C4">
+        <v>1538.13690165204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>105.91996904882799</v>
+      </c>
+      <c r="C5">
+        <v>615.82472413300195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>125.241191637851</v>
+      </c>
+      <c r="C6">
+        <v>1642.60568385428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>183.14309283543301</v>
+      </c>
+      <c r="C7">
+        <v>662.24439896113802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>100.122922630901</v>
+      </c>
+      <c r="C8">
+        <v>695.29487335723798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>129.893774586457</v>
+      </c>
+      <c r="C9">
+        <v>656.50629284445097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>111.112757752281</v>
+      </c>
+      <c r="C10">
+        <v>780.200143906942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>121.959573578506</v>
+      </c>
+      <c r="C11">
+        <v>661.64759589054495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>104.767982357561</v>
+      </c>
+      <c r="C12">
+        <v>790.96385428049098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>103.07737549299399</v>
+      </c>
+      <c r="C13">
+        <v>731.29133826184795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>100.885192967949</v>
+      </c>
+      <c r="C14">
+        <v>721.31099255711104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
